--- a/SO SACH/3702076037/2012/BANGKE GTGT - 12.xlsx
+++ b/SO SACH/3702076037/2012/BANGKE GTGT - 12.xlsx
@@ -1503,6 +1503,27 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,25 +1536,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1548,26 +1569,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1575,41 +1578,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1628,30 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1694,7 +1694,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1899,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,9 +2349,9 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,70 +2407,70 @@
       <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:15" s="34" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="1:15" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
     </row>
     <row r="6" spans="1:15" s="34" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115" t="str">
+      <c r="B7" s="122" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F49)</f>
         <v>Kỳ tính thuế: Tháng 9 Năm 2012</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
     </row>
     <row r="8" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
@@ -2495,67 +2495,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
     </row>
     <row r="12" spans="1:15" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="122" t="s">
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="122" t="s">
+      <c r="J12" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="122" t="s">
+      <c r="L12" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="122" t="s">
+      <c r="M12" s="113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="34" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="117"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="122"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
     </row>
     <row r="14" spans="1:15" s="34" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="117"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
@@ -2568,16 +2568,16 @@
       <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="109" t="str">
-        <f>IF(OR($N$13=4,$N$13=6,$N$13=9,$N$13=11),"30",IF($N$13=2,"28","31"))</f>
-        <v>31</v>
+        <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
+        <v>30</v>
       </c>
       <c r="O14" s="110">
         <v>9</v>
@@ -4235,7 +4235,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="107" t="str">
         <f>"Bình Dương, Ngày  "&amp;N14&amp;"   Tháng   "&amp;O14&amp;"   Năm  "&amp;YEAR(F49)</f>
-        <v>Bình Dương, Ngày  31   Tháng   9   Năm  2012</v>
+        <v>Bình Dương, Ngày  30   Tháng   9   Năm  2012</v>
       </c>
       <c r="K63" s="107"/>
       <c r="L63" s="107"/>
@@ -4303,6 +4303,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -4312,11 +4317,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -4396,66 +4396,66 @@
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="126" t="str">
+      <c r="B7" s="133" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F23)</f>
         <v>Kỳ tính thuế: Tháng 12 Năm 2012</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
@@ -4479,62 +4479,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="128" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="128" t="s">
+      <c r="H12" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="128" t="s">
+      <c r="J12" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="128" t="s">
+      <c r="K12" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="128" t="s">
+      <c r="L12" s="126" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="128"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="128"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -4547,12 +4547,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
       <c r="M14" s="109" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
         <v>31</v>
@@ -4597,16 +4597,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
@@ -4627,16 +4627,16 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="22"/>
@@ -4657,16 +4657,16 @@
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="22"/>
@@ -5665,16 +5665,16 @@
     </row>
     <row r="50" spans="2:12" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="133" t="s">
+      <c r="B51" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
       <c r="L51" s="22"/>
@@ -5816,6 +5816,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B11:L11"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B51:I51"/>
     <mergeCell ref="J12:J14"/>
@@ -5828,11 +5833,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B11:L11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -5875,23 +5875,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
       <c r="R2" s="6" t="s">
         <v>158</v>
       </c>
@@ -5900,23 +5900,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="147"/>
-      <c r="N3" s="147"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="148"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
       <c r="R3" s="6" t="s">
         <v>160</v>
       </c>
@@ -5926,22 +5926,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="89"/>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="140"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="144"/>
       <c r="R4" s="6" t="s">
         <v>162</v>
       </c>
@@ -5951,22 +5951,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="89"/>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="139"/>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="144"/>
       <c r="R5" s="6" t="s">
         <v>164</v>
       </c>
@@ -5977,21 +5977,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="89"/>
       <c r="C6" s="90"/>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="135"/>
-      <c r="P6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
       <c r="R6" s="6" t="s">
         <v>166</v>
       </c>
@@ -6002,21 +6002,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="89"/>
       <c r="C7" s="90"/>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
       <c r="R7" s="6" t="s">
         <v>168</v>
       </c>
@@ -6027,21 +6027,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="89"/>
       <c r="C8" s="90"/>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
       <c r="R8" s="6" t="s">
         <v>170</v>
       </c>
@@ -6052,21 +6052,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="89"/>
       <c r="C9" s="90"/>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
       <c r="R9" s="6" t="s">
         <v>172</v>
       </c>
@@ -6077,21 +6077,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="89"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
       <c r="R10" s="6" t="s">
         <v>174</v>
       </c>
@@ -6101,43 +6101,43 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="89"/>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="140"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="144"/>
       <c r="R11" s="6"/>
       <c r="S11" s="88"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="89"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="140"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="144"/>
       <c r="R12" s="6"/>
       <c r="S12" s="88"/>
     </row>
@@ -6161,65 +6161,65 @@
       <c r="S13" s="88"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="148"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="143"/>
       <c r="R14" s="6"/>
       <c r="S14" s="88"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="89"/>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="140"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="144"/>
       <c r="R15" s="6"/>
       <c r="S15" s="88"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="89"/>
       <c r="C16" s="92"/>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
       <c r="R16" s="6"/>
       <c r="S16" s="88"/>
     </row>
@@ -6247,189 +6247,189 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="89"/>
       <c r="C18" s="90"/>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
       <c r="R18" s="6"/>
       <c r="S18" s="88"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="89"/>
       <c r="C19" s="90"/>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
       <c r="R19" s="6"/>
       <c r="S19" s="88"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="89"/>
       <c r="C20" s="90"/>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
       <c r="R20" s="6"/>
       <c r="S20" s="88"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="89"/>
       <c r="C21" s="90"/>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
       <c r="R21" s="6"/>
       <c r="S21" s="88"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="89"/>
       <c r="C22" s="90"/>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
       <c r="R22" s="6"/>
       <c r="S22" s="88"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="89"/>
       <c r="C23" s="90"/>
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
       <c r="R23" s="6"/>
       <c r="S23" s="88"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="89"/>
       <c r="C24" s="90"/>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
       <c r="R24" s="6"/>
       <c r="S24" s="88"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="89"/>
       <c r="C25" s="90"/>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
       <c r="R25" s="6"/>
       <c r="S25" s="88"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="89"/>
       <c r="C26" s="90"/>
-      <c r="D26" s="135" t="s">
+      <c r="D26" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
       <c r="R26" s="6"/>
       <c r="S26" s="88"/>
     </row>
@@ -6454,148 +6454,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="89"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="140"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="144"/>
       <c r="R28" s="6"/>
       <c r="S28" s="88"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="89"/>
       <c r="C29" s="90"/>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
       <c r="R29" s="6"/>
       <c r="S29" s="88"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="89"/>
       <c r="C30" s="90"/>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
       <c r="R30" s="6"/>
       <c r="S30" s="88"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="89"/>
       <c r="C31" s="90"/>
-      <c r="D31" s="135" t="s">
+      <c r="D31" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
       <c r="R31" s="6"/>
       <c r="S31" s="88"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="89"/>
       <c r="C32" s="90"/>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
       <c r="R32" s="6"/>
       <c r="S32" s="88"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="89"/>
       <c r="C33" s="90"/>
-      <c r="D33" s="141" t="s">
+      <c r="D33" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="148"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="95"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="137"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="138"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="146"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
@@ -7230,6 +7230,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -7244,22 +7260,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7294,23 +7294,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="154"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
       <c r="R2" s="6" t="s">
         <v>124</v>
       </c>
@@ -7322,23 +7322,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
       <c r="R3" s="6" t="s">
         <v>126</v>
       </c>
@@ -7351,22 +7351,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="99"/>
-      <c r="C4" s="155" t="s">
+      <c r="C4" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="156"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="154"/>
       <c r="R4" s="6" t="s">
         <v>122</v>
       </c>
@@ -7379,22 +7379,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="99"/>
-      <c r="C5" s="155" t="s">
+      <c r="C5" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="156"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="154"/>
       <c r="R5" s="6" t="s">
         <v>123</v>
       </c>
@@ -7408,21 +7408,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="99"/>
       <c r="C6" s="100"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-      <c r="P6" s="158"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="156"/>
       <c r="R6" s="6" t="s">
         <v>125</v>
       </c>
@@ -7436,21 +7436,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="99"/>
       <c r="C7" s="100"/>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="158"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="156"/>
       <c r="R7" s="6" t="s">
         <v>115</v>
       </c>
@@ -7464,21 +7464,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="99"/>
       <c r="C8" s="100"/>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="158"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="156"/>
       <c r="R8" s="6" t="s">
         <v>127</v>
       </c>
@@ -7492,21 +7492,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="99"/>
       <c r="C9" s="100"/>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="158"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="156"/>
       <c r="R9" s="6" t="s">
         <v>128</v>
       </c>
@@ -7520,21 +7520,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="99"/>
       <c r="C10" s="100"/>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-      <c r="P10" s="158"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="156"/>
       <c r="R10" s="6" t="s">
         <v>129</v>
       </c>
@@ -7547,22 +7547,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="99"/>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="156"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="154"/>
       <c r="R11" s="6" t="s">
         <v>130</v>
       </c>
@@ -7575,22 +7575,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="99"/>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="156"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="154"/>
       <c r="R12" s="6" t="s">
         <v>131</v>
       </c>
@@ -7622,45 +7622,45 @@
       <c r="T13" s="56"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="151"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
       <c r="R14" s="6"/>
       <c r="S14" s="88"/>
       <c r="T14" s="56"/>
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="99"/>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-      <c r="P15" s="156"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
       <c r="R15" s="6"/>
       <c r="S15" s="88"/>
       <c r="T15" s="56"/>
@@ -7668,21 +7668,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="99"/>
       <c r="C16" s="102"/>
-      <c r="D16" s="157" t="s">
+      <c r="D16" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="158"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="156"/>
       <c r="R16" s="6"/>
       <c r="S16" s="88"/>
       <c r="T16" s="88"/>
@@ -7712,21 +7712,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="99"/>
       <c r="C18" s="100"/>
-      <c r="D18" s="157" t="s">
+      <c r="D18" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="158"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="156"/>
       <c r="R18" s="59"/>
       <c r="S18" s="88"/>
       <c r="T18" s="88"/>
@@ -7734,21 +7734,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="99"/>
       <c r="C19" s="100"/>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="158"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="156"/>
       <c r="R19" s="59"/>
       <c r="S19" s="88"/>
       <c r="T19" s="88"/>
@@ -7756,21 +7756,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="99"/>
       <c r="C20" s="100"/>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="158"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="156"/>
       <c r="R20" s="59"/>
       <c r="S20" s="88"/>
       <c r="T20" s="88"/>
@@ -7778,21 +7778,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="156"/>
       <c r="R21" s="59"/>
       <c r="S21" s="88"/>
       <c r="T21" s="88"/>
@@ -7800,21 +7800,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
-      <c r="D22" s="157" t="s">
+      <c r="D22" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="156"/>
       <c r="R22" s="59"/>
       <c r="S22" s="88"/>
       <c r="T22" s="88"/>
@@ -7822,21 +7822,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="99"/>
       <c r="C23" s="100"/>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="156"/>
       <c r="R23" s="59"/>
       <c r="S23" s="88"/>
       <c r="T23" s="88"/>
@@ -7844,21 +7844,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="99"/>
       <c r="C24" s="100"/>
-      <c r="D24" s="157" t="s">
+      <c r="D24" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="156"/>
       <c r="R24" s="59"/>
       <c r="S24" s="88"/>
       <c r="T24" s="88"/>
@@ -7866,21 +7866,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+      <c r="P25" s="156"/>
       <c r="R25" s="59"/>
       <c r="S25" s="88"/>
       <c r="T25" s="88"/>
@@ -7888,21 +7888,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
-      <c r="D26" s="157" t="s">
+      <c r="D26" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="156"/>
       <c r="R26" s="59"/>
       <c r="S26" s="88"/>
       <c r="T26" s="88"/>
@@ -7910,21 +7910,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
-      <c r="D27" s="157" t="s">
+      <c r="D27" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="156"/>
       <c r="R27" s="59"/>
       <c r="S27" s="88"/>
       <c r="T27" s="88"/>
@@ -7951,22 +7951,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="99"/>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="156"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="154"/>
       <c r="R29" s="6"/>
       <c r="S29" s="88"/>
       <c r="T29" s="88"/>
@@ -7974,21 +7974,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="158"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="156"/>
       <c r="R30" s="6"/>
       <c r="S30" s="88"/>
       <c r="T30" s="88"/>
@@ -7996,21 +7996,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
-      <c r="D31" s="157" t="s">
+      <c r="D31" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="158"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="156"/>
       <c r="R31" s="6"/>
       <c r="S31" s="88"/>
       <c r="T31" s="88"/>
@@ -8018,21 +8018,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
-      <c r="D32" s="157" t="s">
+      <c r="D32" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="158"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="156"/>
       <c r="R32" s="6"/>
       <c r="S32" s="88"/>
       <c r="T32" s="88"/>
@@ -8040,21 +8040,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
-      <c r="D33" s="157" t="s">
+      <c r="D33" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="158"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="156"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -8062,21 +8062,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="159" t="s">
+      <c r="D34" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="160"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="150"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -8084,21 +8084,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
-      <c r="D35" s="159" t="s">
+      <c r="D35" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="159"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="159"/>
-      <c r="O35" s="159"/>
-      <c r="P35" s="160"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="150"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -8106,21 +8106,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="105"/>
       <c r="C36" s="106"/>
-      <c r="D36" s="161" t="s">
+      <c r="D36" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="162"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="152"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -8197,14 +8197,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -8217,18 +8221,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
